--- a/data/trans_camb/P38_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,88</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,01</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>8,17</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 32,58</t>
+          <t>-8,37; 24,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 14,6</t>
+          <t>-4,97; 24,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 35,93</t>
+          <t>-6,65; 10,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 17,07</t>
+          <t>-2,18; 21,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 31,06</t>
+          <t>-5,34; 12,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 12,96</t>
+          <t>-0,45; 17,69</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>159,29%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>128,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>256,29%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>180,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>203,84%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>156,46%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 719,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,82; 349,89</t>
+          <t>-77,01; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,8; 847,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 427,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,97; 523,87</t>
+          <t>-71,06; 764,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 233,77</t>
+          <t>-23,02; 1014,51</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,42</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>1,72</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 23,96</t>
+          <t>-11,41; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 13,58</t>
+          <t>-11,67; 11,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 24,97</t>
+          <t>-11,81; 14,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 16,74</t>
+          <t>-8,66; 19,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 20,78</t>
+          <t>-8,82; 9,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 12,41</t>
+          <t>-7,62; 11,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>147,35%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>101,15%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>114,58%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 729,43</t>
+          <t>-88,3; 450,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 408,22</t>
+          <t>-87,93; 482,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 287,41</t>
+          <t>-62,35; 190,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 214,94</t>
+          <t>-48,21; 254,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,01; 266,36</t>
+          <t>-57,58; 143,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 174,44</t>
+          <t>-52,54; 172,34</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,16</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,96</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,76</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,91</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 37,13</t>
+          <t>-7,97; 11,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 12,02</t>
+          <t>-9,87; 7,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,76; 42,88</t>
+          <t>-7,7; 10,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 23,09</t>
+          <t>-1,05; 22,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,91; 36,2</t>
+          <t>-5,11; 8,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 15,64</t>
+          <t>-2,58; 13,64</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>512,46%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>108,43%</t>
+          <t>-9,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>229,11%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>75,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>287,44%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>46,69%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>158,67; 1838,62</t>
+          <t>-79,92; 394,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 572,9</t>
+          <t>-100,0; 346,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>120,88; 427,48</t>
+          <t>-49,4; 133,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 218,58</t>
+          <t>-13,89; 273,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>157,63; 496,31</t>
+          <t>-41,03; 119,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,62; 215,79</t>
+          <t>-23,15; 188,25</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,99</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>16,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,42</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,29</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>14,91</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,86; 29,52</t>
+          <t>-7,01; 10,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 20,23</t>
+          <t>5,48; 27,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,3; 31,81</t>
+          <t>-7,39; 8,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 24,06</t>
+          <t>4,44; 23,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 28,53</t>
+          <t>-5,23; 6,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 19,47</t>
+          <t>8,19; 22,69</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>197,22%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>113,83%</t>
+          <t>217,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>167,52%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>108,93%</t>
+          <t>151,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>178,48%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>109,91%</t>
+          <t>179,68%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61,16; 424,9</t>
+          <t>-66,23; 384,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,13; 309,07</t>
+          <t>30,21; 870,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,24; 320,24</t>
+          <t>-61,67; 148,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,04; 243,11</t>
+          <t>29,58; 423,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>99,1; 298,71</t>
+          <t>-48,61; 122,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,38; 214,07</t>
+          <t>67,38; 425,66</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,82</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>22,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33,49</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,69</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,18</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
+          <t>24,28</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,82; 31,38</t>
+          <t>-16,12; 11,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 24,81</t>
+          <t>4,1; 36,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,53; 45,62</t>
+          <t>-15,09; 22,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,09; 34,23</t>
+          <t>6,79; 43,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,31; 36,05</t>
+          <t>-9,84; 13,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 25,54</t>
+          <t>10,85; 36,21</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>110,82%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>101,97%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,48; 199,49</t>
+          <t>-54,62; 72,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,98; 154,21</t>
+          <t>8,27; 235,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>51,89; 187,88</t>
+          <t>-37,93; 110,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,16; 146,29</t>
+          <t>13,59; 233,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>56,95; 174,21</t>
+          <t>-31,41; 71,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,29; 117,99</t>
+          <t>33,52; 181,7</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>20,72</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>23,85</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>26,26</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>33,18</t>
+          <t>37,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>23,56</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,7</t>
+          <t>31,12</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,34; 34,86</t>
+          <t>-17,39; 23,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,17; 30,06</t>
+          <t>5,74; 40,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,94; 42,51</t>
+          <t>-11,41; 32,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>20,91; 49,23</t>
+          <t>14,85; 54,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>12,93; 34,24</t>
+          <t>-7,36; 22,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,18; 36,4</t>
+          <t>16,88; 43,51</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>71,36%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>57,5%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,92; 62,38</t>
+          <t>-23,58; 44,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,82; 54,65</t>
+          <t>8,49; 80,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,49; 114,66</t>
+          <t>-20,64; 94,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>34,66; 131,9</t>
+          <t>27,81; 173,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,05; 71,92</t>
+          <t>-11,69; 49,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,91; 75,12</t>
+          <t>27,94; 96,97</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,84</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>14,85</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>12,78; 24,09</t>
+          <t>-5,55; 6,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 12,14</t>
+          <t>2,74; 17,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>19,63; 30,35</t>
+          <t>-3,28; 8,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11,63; 24,53</t>
+          <t>12,14; 26,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,11; 25,35</t>
+          <t>-2,74; 5,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,93</t>
+          <t>10,22; 20,26</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>125,72%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>110,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>114,39%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>87,16%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>61,69; 154,43</t>
+          <t>-27,56; 47,53</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7,63; 77,2</t>
+          <t>13,96; 127,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>84,85; 168,27</t>
+          <t>-16,94; 57,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>51,46; 130,14</t>
+          <t>61,3; 184,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>86,37; 143,9</t>
+          <t>-14,11; 38,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>41,09; 94,85</t>
+          <t>55,02; 136,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
